--- a/HuongDanCaiDatMagentoTrenDocker.xlsx
+++ b/HuongDanCaiDatMagentoTrenDocker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\env\docker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E99C7E9-7175-4421-AEE0-538DD17655C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA00CE8-7D2B-4BC3-A0B5-2FF5333BF6E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -215,13 +215,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>322362</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>189643</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -259,13 +259,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>398562</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>122968</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -303,13 +303,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>215</xdr:row>
+      <xdr:row>257</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>322362</xdr:colOff>
-      <xdr:row>250</xdr:row>
+      <xdr:row>292</xdr:row>
       <xdr:rowOff>189643</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -347,13 +347,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>522757</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>132392</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -391,13 +391,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>255</xdr:row>
+      <xdr:row>297</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>280</xdr:row>
+      <xdr:row>322</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -452,13 +452,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>342248</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>203</xdr:row>
       <xdr:rowOff>123119</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -496,13 +496,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>207</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>113905</xdr:colOff>
-      <xdr:row>210</xdr:row>
+      <xdr:row>252</xdr:row>
       <xdr:rowOff>75119</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -540,13 +540,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>284</xdr:row>
+      <xdr:row>326</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>301</xdr:row>
+      <xdr:row>343</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -712,13 +712,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>307</xdr:row>
+      <xdr:row>349</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>607314</xdr:colOff>
-      <xdr:row>353</xdr:row>
+      <xdr:row>395</xdr:row>
       <xdr:rowOff>160809</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -756,13 +756,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>358</xdr:row>
+      <xdr:row>400</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>607314</xdr:colOff>
-      <xdr:row>409</xdr:row>
+      <xdr:row>451</xdr:row>
       <xdr:rowOff>189262</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -788,6 +788,50 @@
         <a:xfrm>
           <a:off x="0" y="68199000"/>
           <a:ext cx="18285714" cy="9904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>408457</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>46667</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C03C79C-97B4-4CB3-B8CE-BA4321A8C11E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="571500"/>
+          <a:ext cx="8942857" cy="7666667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1062,10 +1106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A420"/>
+  <dimension ref="A1:A462"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A403" workbookViewId="0">
-      <selection activeCell="E421" sqref="E421"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1085,139 +1129,139 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A413" t="s">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A414" s="3" t="s">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A416" t="s">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A417" t="s">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A418" t="s">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A419" t="s">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A420" t="s">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A414" r:id="rId1" xr:uid="{55C2A03A-8B7F-4538-BC54-ED0FCAA503AD}"/>
+    <hyperlink ref="A456" r:id="rId1" xr:uid="{55C2A03A-8B7F-4538-BC54-ED0FCAA503AD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/HuongDanCaiDatMagentoTrenDocker.xlsx
+++ b/HuongDanCaiDatMagentoTrenDocker.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\env\docker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\env\test\docker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA00CE8-7D2B-4BC3-A0B5-2FF5333BF6E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -125,13 +124,13 @@
     <t>sử dụng lệnh sau để disable: php bin/magento module:disable Magento_TwoFactorAuth</t>
   </si>
   <si>
-    <t>account login admin : admin/abc123</t>
+    <t>account login admin : admin/admin123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1105,11 +1104,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A462"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:XFD54"/>
+    <sheetView tabSelected="1" topLeftCell="A425" workbookViewId="0">
+      <selection activeCell="G460" sqref="G460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1261,7 +1260,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A456" r:id="rId1" xr:uid="{55C2A03A-8B7F-4538-BC54-ED0FCAA503AD}"/>
+    <hyperlink ref="A456" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
